--- a/REGULAR/OJT/NEW DONE/ALEGRE, VIVENCIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALEGRE, VIVENCIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057ADCD6-0078-4F70-A321-43909AC16A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3885" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="347">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1080,12 +1084,15 @@
   </si>
   <si>
     <t>12/22,23,27/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1476,6 +1483,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,12 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,7 +1973,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2016,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2080,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2140,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2206,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2269,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2367,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2426,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2491,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2534,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2609,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2795,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2861,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2919,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2985,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +3041,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3116,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3159,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3225,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3281,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3379,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3442,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,25 +3508,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K531" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K531" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3531,13 +3538,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3546,14 +3553,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3857,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3867,7 +3874,7 @@
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3875,91 +3882,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A508" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A3" activePane="bottomLeft"/>
       <selection activeCell="D247" sqref="D247"/>
-      <selection pane="bottomLeft" activeCell="D524" sqref="D524"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3967,7 +3974,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3980,24 +3987,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>23</v>
@@ -4056,7 +4063,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="51"/>
       <c r="B10" s="52" t="s">
         <v>43</v>
@@ -4078,7 +4085,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="29" t="s">
         <v>44</v>
@@ -4096,7 +4103,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>34060</v>
       </c>
@@ -4114,7 +4121,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>34090</v>
       </c>
@@ -4138,7 +4145,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>34121</v>
       </c>
@@ -4158,7 +4165,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>34151</v>
       </c>
@@ -4178,7 +4185,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>34182</v>
       </c>
@@ -4198,7 +4205,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>34213</v>
       </c>
@@ -4218,7 +4225,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>34243</v>
       </c>
@@ -4242,7 +4249,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>34274</v>
       </c>
@@ -4262,7 +4269,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>34304</v>
       </c>
@@ -4282,7 +4289,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>45</v>
       </c>
@@ -4304,7 +4311,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>34335</v>
       </c>
@@ -4324,7 +4331,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>34366</v>
       </c>
@@ -4344,7 +4351,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>34394</v>
       </c>
@@ -4364,7 +4371,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>34425</v>
       </c>
@@ -4384,7 +4391,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>34455</v>
       </c>
@@ -4404,7 +4411,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>34486</v>
       </c>
@@ -4424,7 +4431,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>34516</v>
       </c>
@@ -4448,7 +4455,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>34547</v>
       </c>
@@ -4468,7 +4475,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>34578</v>
       </c>
@@ -4488,7 +4495,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>34608</v>
       </c>
@@ -4514,7 +4521,7 @@
         <v>34625</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>34639</v>
       </c>
@@ -4534,7 +4541,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>34669</v>
       </c>
@@ -4558,7 +4565,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>46</v>
       </c>
@@ -4580,7 +4587,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>34700</v>
       </c>
@@ -4600,7 +4607,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>34731</v>
       </c>
@@ -4620,7 +4627,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>34759</v>
       </c>
@@ -4640,7 +4647,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>34790</v>
       </c>
@@ -4660,7 +4667,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>34820</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>34851</v>
       </c>
@@ -4706,7 +4713,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>34881</v>
       </c>
@@ -4726,7 +4733,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>34912</v>
       </c>
@@ -4746,7 +4753,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>34943</v>
       </c>
@@ -4766,7 +4773,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>34973</v>
       </c>
@@ -4790,7 +4797,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>35004</v>
       </c>
@@ -4810,7 +4817,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>35034</v>
       </c>
@@ -4830,7 +4837,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
         <v>75</v>
       </c>
@@ -4852,7 +4859,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>35065</v>
       </c>
@@ -4872,7 +4879,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>35096</v>
       </c>
@@ -4892,7 +4899,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>35125</v>
       </c>
@@ -4912,7 +4919,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>35156</v>
       </c>
@@ -4932,7 +4939,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>35186</v>
       </c>
@@ -4952,7 +4959,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>35217</v>
       </c>
@@ -4972,7 +4979,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>35247</v>
       </c>
@@ -4992,7 +4999,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>35278</v>
       </c>
@@ -5012,7 +5019,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>35309</v>
       </c>
@@ -5032,7 +5039,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>35339</v>
       </c>
@@ -5052,7 +5059,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>35370</v>
       </c>
@@ -5072,7 +5079,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>35400</v>
       </c>
@@ -5096,7 +5103,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>85</v>
@@ -5114,7 +5121,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20" t="s">
         <v>73</v>
@@ -5136,7 +5143,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
         <v>47</v>
       </c>
@@ -5158,7 +5165,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>35431</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="20" t="s">
         <v>73</v>
@@ -5206,7 +5213,7 @@
         <v>35091</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>35462</v>
       </c>
@@ -5226,7 +5233,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>35490</v>
       </c>
@@ -5246,7 +5253,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>35521</v>
       </c>
@@ -5266,7 +5273,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>35551</v>
       </c>
@@ -5292,7 +5299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>35582</v>
       </c>
@@ -5312,7 +5319,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>35612</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>35643</v>
       </c>
@@ -5358,7 +5365,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>35674</v>
       </c>
@@ -5378,7 +5385,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>35704</v>
       </c>
@@ -5398,7 +5405,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>35735</v>
       </c>
@@ -5418,7 +5425,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>35765</v>
       </c>
@@ -5442,7 +5449,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
         <v>48</v>
       </c>
@@ -5464,7 +5471,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>35796</v>
       </c>
@@ -5484,7 +5491,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>35827</v>
       </c>
@@ -5504,7 +5511,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>35855</v>
       </c>
@@ -5524,7 +5531,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>35886</v>
       </c>
@@ -5544,7 +5551,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>35916</v>
       </c>
@@ -5570,7 +5577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="20" t="s">
         <v>83</v>
@@ -5590,7 +5597,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>35947</v>
       </c>
@@ -5614,7 +5621,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>35977</v>
       </c>
@@ -5638,7 +5645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
       <c r="B85" s="20" t="s">
         <v>86</v>
@@ -5658,7 +5665,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>36008</v>
       </c>
@@ -5678,7 +5685,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>36039</v>
       </c>
@@ -5702,7 +5709,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>36069</v>
       </c>
@@ -5728,7 +5735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>93</v>
@@ -5748,7 +5755,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>36100</v>
       </c>
@@ -5774,7 +5781,7 @@
         <v>36112</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5791,7 +5798,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>36130</v>
       </c>
@@ -5815,7 +5822,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="s">
         <v>49</v>
       </c>
@@ -5837,7 +5844,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>36161</v>
       </c>
@@ -5861,7 +5868,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>36192</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>36197</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>103</v>
@@ -5907,7 +5914,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>36220</v>
       </c>
@@ -5931,7 +5938,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>36251</v>
       </c>
@@ -5957,7 +5964,7 @@
         <v>36280</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="20" t="s">
         <v>99</v>
@@ -5977,7 +5984,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>36281</v>
       </c>
@@ -6001,7 +6008,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>104</v>
@@ -6018,7 +6025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38">
         <v>36312</v>
       </c>
@@ -6042,7 +6049,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="20" t="s">
         <v>92</v>
@@ -6064,7 +6071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="20" t="s">
         <v>101</v>
@@ -6084,7 +6091,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38">
         <v>36342</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="20" t="s">
         <v>107</v>
@@ -6125,7 +6132,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>36373</v>
       </c>
@@ -6149,7 +6156,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>36404</v>
       </c>
@@ -6173,7 +6180,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>36434</v>
       </c>
@@ -6197,7 +6204,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <v>36465</v>
       </c>
@@ -6221,7 +6228,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <v>36495</v>
       </c>
@@ -6245,7 +6252,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="20" t="s">
         <v>85</v>
@@ -6265,7 +6272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="20" t="s">
         <v>112</v>
@@ -6285,7 +6292,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="50" t="s">
         <v>50</v>
       </c>
@@ -6307,7 +6314,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38">
         <v>36526</v>
       </c>
@@ -6333,7 +6340,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="20" t="s">
         <v>85</v>
@@ -6353,7 +6360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="20" t="s">
         <v>114</v>
@@ -6370,7 +6377,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>36557</v>
       </c>
@@ -6394,7 +6401,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <v>36586</v>
       </c>
@@ -6418,7 +6425,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38">
         <v>36617</v>
       </c>
@@ -6442,7 +6449,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>36647</v>
       </c>
@@ -6466,7 +6473,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38">
         <v>36678</v>
       </c>
@@ -6490,7 +6497,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38">
         <v>36708</v>
       </c>
@@ -6514,7 +6521,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
       <c r="B124" s="20" t="s">
         <v>85</v>
@@ -6534,7 +6541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <v>36739</v>
       </c>
@@ -6558,7 +6565,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>36770</v>
       </c>
@@ -6582,7 +6589,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>36800</v>
       </c>
@@ -6606,7 +6613,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38">
         <v>36831</v>
       </c>
@@ -6632,7 +6639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38"/>
       <c r="B129" s="20" t="s">
         <v>92</v>
@@ -6654,7 +6661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>128</v>
@@ -6674,7 +6681,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38">
         <v>36861</v>
       </c>
@@ -6700,7 +6707,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38"/>
       <c r="B132" s="20" t="s">
         <v>129</v>
@@ -6720,7 +6727,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="50" t="s">
         <v>51</v>
       </c>
@@ -6742,7 +6749,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>36892</v>
       </c>
@@ -6768,7 +6775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>132</v>
@@ -6783,7 +6790,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38">
         <v>36923</v>
       </c>
@@ -6803,7 +6810,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38">
         <v>36951</v>
       </c>
@@ -6823,7 +6830,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="38">
         <v>36982</v>
       </c>
@@ -6847,7 +6854,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38">
         <v>37012</v>
       </c>
@@ -6871,7 +6878,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38">
         <v>37043</v>
       </c>
@@ -6895,7 +6902,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38"/>
       <c r="B141" s="20" t="s">
         <v>135</v>
@@ -6915,7 +6922,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38">
         <v>37073</v>
       </c>
@@ -6939,7 +6946,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38">
         <v>37104</v>
       </c>
@@ -6963,7 +6970,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38">
         <v>37135</v>
       </c>
@@ -6987,7 +6994,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38">
         <v>37165</v>
       </c>
@@ -7013,7 +7020,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>138</v>
@@ -7033,7 +7040,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="54"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38">
         <v>37196</v>
       </c>
@@ -7057,7 +7064,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
       <c r="B148" s="20" t="s">
         <v>139</v>
@@ -7077,7 +7084,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38">
         <v>37226</v>
       </c>
@@ -7101,7 +7108,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="50" t="s">
         <v>52</v>
       </c>
@@ -7123,7 +7130,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38">
         <v>37257</v>
       </c>
@@ -7147,7 +7154,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38">
         <v>37288</v>
       </c>
@@ -7171,7 +7178,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38">
         <v>37316</v>
       </c>
@@ -7195,7 +7202,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38">
         <v>37347</v>
       </c>
@@ -7219,7 +7226,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38"/>
       <c r="B155" s="20" t="s">
         <v>76</v>
@@ -7241,7 +7248,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38">
         <v>37377</v>
       </c>
@@ -7267,7 +7274,7 @@
         <v>37382</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
       <c r="B157" s="20" t="s">
         <v>85</v>
@@ -7287,7 +7294,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38">
         <v>37408</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38">
         <v>37438</v>
       </c>
@@ -7337,7 +7344,7 @@
         <v>37446</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38">
         <v>37469</v>
       </c>
@@ -7357,7 +7364,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38">
         <v>37500</v>
       </c>
@@ -7377,7 +7384,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38">
         <v>37530</v>
       </c>
@@ -7397,7 +7404,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38">
         <v>37561</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38"/>
       <c r="B164" s="20" t="s">
         <v>147</v>
@@ -7443,7 +7450,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="54"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38">
         <v>37591</v>
       </c>
@@ -7467,7 +7474,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
         <v>148</v>
@@ -7487,7 +7494,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="50" t="s">
         <v>53</v>
       </c>
@@ -7509,7 +7516,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38">
         <v>37622</v>
       </c>
@@ -7535,7 +7542,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38"/>
       <c r="B169" s="20" t="s">
         <v>119</v>
@@ -7552,7 +7559,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38">
         <v>37653</v>
       </c>
@@ -7576,7 +7583,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38">
         <v>37681</v>
       </c>
@@ -7600,7 +7607,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38">
         <v>37712</v>
       </c>
@@ -7626,7 +7633,7 @@
         <v>37721</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38">
         <v>37742</v>
       </c>
@@ -7646,7 +7653,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38">
         <v>37773</v>
       </c>
@@ -7666,7 +7673,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38">
         <v>37803</v>
       </c>
@@ -7690,7 +7697,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>85</v>
@@ -7710,7 +7717,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38">
         <v>37834</v>
       </c>
@@ -7734,7 +7741,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38">
         <v>37865</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38"/>
       <c r="B179" s="20" t="s">
         <v>93</v>
@@ -7780,7 +7787,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38">
         <v>37895</v>
       </c>
@@ -7804,7 +7811,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38">
         <v>37926</v>
       </c>
@@ -7830,7 +7837,7 @@
         <v>37938</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38"/>
       <c r="B182" s="20" t="s">
         <v>155</v>
@@ -7850,7 +7857,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38">
         <v>37956</v>
       </c>
@@ -7874,7 +7881,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>156</v>
@@ -7894,7 +7901,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="50" t="s">
         <v>54</v>
       </c>
@@ -7916,7 +7923,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38">
         <v>37987</v>
       </c>
@@ -7940,7 +7947,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38">
         <v>38018</v>
       </c>
@@ -7964,7 +7971,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="B188" s="20" t="s">
         <v>85</v>
@@ -7984,7 +7991,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38">
         <v>38047</v>
       </c>
@@ -8008,7 +8015,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>85</v>
@@ -8028,7 +8035,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38">
         <v>38078</v>
       </c>
@@ -8052,7 +8059,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38">
         <v>38108</v>
       </c>
@@ -8078,7 +8085,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>163</v>
@@ -8098,7 +8105,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38">
         <v>38139</v>
       </c>
@@ -8122,7 +8129,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38">
         <v>38169</v>
       </c>
@@ -8146,7 +8153,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38">
         <v>38200</v>
       </c>
@@ -8170,7 +8177,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38">
         <v>38231</v>
       </c>
@@ -8194,7 +8201,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38">
         <v>38261</v>
       </c>
@@ -8218,7 +8225,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38">
         <v>38292</v>
       </c>
@@ -8242,7 +8249,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38">
         <v>38322</v>
       </c>
@@ -8268,7 +8275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>173</v>
@@ -8288,7 +8295,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="50" t="s">
         <v>55</v>
       </c>
@@ -8310,7 +8317,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38">
         <v>38353</v>
       </c>
@@ -8334,7 +8341,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38">
         <v>38384</v>
       </c>
@@ -8360,7 +8367,7 @@
         <v>38391</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>73</v>
@@ -8382,7 +8389,7 @@
         <v>38394</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38"/>
       <c r="B206" s="20" t="s">
         <v>175</v>
@@ -8402,7 +8409,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38">
         <v>38412</v>
       </c>
@@ -8426,7 +8433,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>85</v>
@@ -8446,7 +8453,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38">
         <v>38443</v>
       </c>
@@ -8470,7 +8477,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>85</v>
@@ -8490,7 +8497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38">
         <v>38473</v>
       </c>
@@ -8514,7 +8521,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38">
         <v>38504</v>
       </c>
@@ -8538,7 +8545,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>85</v>
@@ -8558,7 +8565,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38">
         <v>38534</v>
       </c>
@@ -8582,7 +8589,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38">
         <v>38565</v>
       </c>
@@ -8606,7 +8613,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38">
         <v>38596</v>
       </c>
@@ -8630,7 +8637,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38">
         <v>38626</v>
       </c>
@@ -8654,7 +8661,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38">
         <v>38657</v>
       </c>
@@ -8680,7 +8687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38"/>
       <c r="B219" s="20" t="s">
         <v>186</v>
@@ -8697,7 +8704,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38">
         <v>38687</v>
       </c>
@@ -8721,7 +8728,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="50" t="s">
         <v>56</v>
       </c>
@@ -8743,7 +8750,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38">
         <v>38718</v>
       </c>
@@ -8767,7 +8774,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38">
         <v>38749</v>
       </c>
@@ -8791,7 +8798,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>85</v>
@@ -8808,7 +8815,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>85</v>
@@ -8825,7 +8832,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38"/>
       <c r="B226" s="20" t="s">
         <v>140</v>
@@ -8842,7 +8849,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38">
         <v>38777</v>
       </c>
@@ -8866,7 +8873,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38">
         <v>38808</v>
       </c>
@@ -8890,7 +8897,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>78</v>
@@ -8909,7 +8916,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38">
         <v>38838</v>
       </c>
@@ -8933,7 +8940,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38">
         <v>38869</v>
       </c>
@@ -8957,7 +8964,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38">
         <v>38899</v>
       </c>
@@ -8983,7 +8990,7 @@
         <v>38925</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38"/>
       <c r="B233" s="20" t="s">
         <v>198</v>
@@ -9003,7 +9010,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38">
         <v>38930</v>
       </c>
@@ -9027,7 +9034,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38">
         <v>38961</v>
       </c>
@@ -9051,7 +9058,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="38">
         <v>38991</v>
       </c>
@@ -9075,7 +9082,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38">
         <v>39022</v>
       </c>
@@ -9099,7 +9106,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38">
         <v>39052</v>
       </c>
@@ -9125,7 +9132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>203</v>
@@ -9145,7 +9152,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="50" t="s">
         <v>57</v>
       </c>
@@ -9167,7 +9174,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38">
         <v>39083</v>
       </c>
@@ -9191,7 +9198,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38">
         <v>39114</v>
       </c>
@@ -9215,7 +9222,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38">
         <v>39142</v>
       </c>
@@ -9239,7 +9246,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38">
         <v>39173</v>
       </c>
@@ -9263,7 +9270,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>207</v>
@@ -9283,7 +9290,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38">
         <v>39203</v>
       </c>
@@ -9307,7 +9314,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38">
         <v>39234</v>
       </c>
@@ -9331,7 +9338,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38">
         <v>39264</v>
       </c>
@@ -9355,7 +9362,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>133</v>
@@ -9375,7 +9382,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="38">
         <v>39295</v>
       </c>
@@ -9399,7 +9406,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38">
         <v>39326</v>
       </c>
@@ -9423,7 +9430,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38">
         <v>39356</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -9467,7 +9474,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38">
         <v>39387</v>
       </c>
@@ -9493,7 +9500,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38"/>
       <c r="B255" s="20" t="s">
         <v>135</v>
@@ -9513,7 +9520,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38">
         <v>39417</v>
       </c>
@@ -9539,7 +9546,7 @@
         <v>39442</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38"/>
       <c r="B257" s="20" t="s">
         <v>214</v>
@@ -9559,7 +9566,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="50" t="s">
         <v>58</v>
       </c>
@@ -9581,7 +9588,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="38">
         <v>39448</v>
       </c>
@@ -9605,7 +9612,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38"/>
       <c r="B260" s="20" t="s">
         <v>215</v>
@@ -9625,7 +9632,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38">
         <v>39479</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38"/>
       <c r="B262" s="20" t="s">
         <v>217</v>
@@ -9669,7 +9676,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38">
         <v>39508</v>
       </c>
@@ -9693,7 +9700,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38">
         <v>39539</v>
       </c>
@@ -9717,7 +9724,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38">
         <v>39569</v>
       </c>
@@ -9741,7 +9748,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38">
         <v>39600</v>
       </c>
@@ -9765,7 +9772,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38">
         <v>39630</v>
       </c>
@@ -9791,7 +9798,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>91</v>
@@ -9810,7 +9817,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38"/>
       <c r="B269" s="20" t="s">
         <v>222</v>
@@ -9827,7 +9834,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38">
         <v>39661</v>
       </c>
@@ -9851,7 +9858,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38">
         <v>39692</v>
       </c>
@@ -9875,7 +9882,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38">
         <v>39722</v>
       </c>
@@ -9901,7 +9908,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>73</v>
@@ -9920,7 +9927,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="38"/>
       <c r="B274" s="20" t="s">
         <v>229</v>
@@ -9937,7 +9944,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="38">
         <v>39753</v>
       </c>
@@ -9961,7 +9968,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38">
         <v>39783</v>
       </c>
@@ -9985,7 +9992,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="50" t="s">
         <v>59</v>
       </c>
@@ -10007,7 +10014,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38">
         <v>39814</v>
       </c>
@@ -10031,7 +10038,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="38">
         <v>39845</v>
       </c>
@@ -10055,7 +10062,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38">
         <v>39873</v>
       </c>
@@ -10079,7 +10086,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>85</v>
@@ -10096,7 +10103,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38"/>
       <c r="B282" s="20" t="s">
         <v>234</v>
@@ -10113,7 +10120,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <v>39904</v>
       </c>
@@ -10137,7 +10144,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38">
         <v>39934</v>
       </c>
@@ -10161,7 +10168,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38">
         <v>39965</v>
       </c>
@@ -10185,7 +10192,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38">
         <v>39995</v>
       </c>
@@ -10209,7 +10216,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38"/>
       <c r="B287" s="20" t="s">
         <v>238</v>
@@ -10226,7 +10233,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="38">
         <v>40026</v>
       </c>
@@ -10250,7 +10257,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38">
         <v>40057</v>
       </c>
@@ -10274,7 +10281,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38">
         <v>40087</v>
       </c>
@@ -10298,7 +10305,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38">
         <v>40118</v>
       </c>
@@ -10324,7 +10331,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38"/>
       <c r="B292" s="20" t="s">
         <v>241</v>
@@ -10341,7 +10348,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38">
         <v>40148</v>
       </c>
@@ -10365,7 +10372,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="50" t="s">
         <v>60</v>
       </c>
@@ -10387,7 +10394,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38">
         <v>40179</v>
       </c>
@@ -10411,7 +10418,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38">
         <v>40210</v>
       </c>
@@ -10435,7 +10442,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="38"/>
       <c r="B297" s="20" t="s">
         <v>248</v>
@@ -10452,7 +10459,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38">
         <v>40238</v>
       </c>
@@ -10476,7 +10483,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38"/>
       <c r="B299" s="20" t="s">
         <v>249</v>
@@ -10496,7 +10503,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38">
         <v>40269</v>
       </c>
@@ -10520,7 +10527,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38">
         <v>40299</v>
       </c>
@@ -10544,7 +10551,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38"/>
       <c r="B302" s="20" t="s">
         <v>251</v>
@@ -10564,7 +10571,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38">
         <v>40330</v>
       </c>
@@ -10588,7 +10595,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
         <v>40360</v>
       </c>
@@ -10614,7 +10621,7 @@
         <v>40374</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>254</v>
@@ -10634,7 +10641,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38">
         <v>40391</v>
       </c>
@@ -10658,7 +10665,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38">
         <v>40422</v>
       </c>
@@ -10684,7 +10691,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>256</v>
@@ -10704,7 +10711,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38">
         <v>40452</v>
       </c>
@@ -10728,7 +10735,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38">
         <v>40483</v>
       </c>
@@ -10754,7 +10761,7 @@
         <v>40486</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38"/>
       <c r="B311" s="20" t="s">
         <v>73</v>
@@ -10776,7 +10783,7 @@
         <v>40506</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
         <v>258</v>
@@ -10798,7 +10805,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>264</v>
@@ -10815,7 +10822,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="38">
         <v>40513</v>
       </c>
@@ -10839,7 +10846,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="50" t="s">
         <v>61</v>
       </c>
@@ -10861,7 +10868,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38">
         <v>40544</v>
       </c>
@@ -10885,7 +10892,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <v>40575</v>
       </c>
@@ -10909,7 +10916,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>266</v>
@@ -10926,7 +10933,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38">
         <v>40603</v>
       </c>
@@ -10950,7 +10957,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <v>40634</v>
       </c>
@@ -10974,7 +10981,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38">
         <v>40664</v>
       </c>
@@ -10998,7 +11005,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38">
         <v>40695</v>
       </c>
@@ -11022,7 +11029,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38">
         <v>40725</v>
       </c>
@@ -11046,7 +11053,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
         <v>268</v>
@@ -11066,7 +11073,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38">
         <v>40756</v>
       </c>
@@ -11090,7 +11097,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>269</v>
@@ -11114,7 +11121,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
       <c r="B327" s="20" t="s">
         <v>270</v>
@@ -11134,7 +11141,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38">
         <v>40787</v>
       </c>
@@ -11158,7 +11165,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38">
         <v>40817</v>
       </c>
@@ -11182,7 +11189,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38">
         <v>40848</v>
       </c>
@@ -11208,7 +11215,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38"/>
       <c r="B331" s="20" t="s">
         <v>253</v>
@@ -11230,7 +11237,7 @@
         <v>40865</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38"/>
       <c r="B332" s="20" t="s">
         <v>112</v>
@@ -11252,7 +11259,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>86</v>
@@ -11272,7 +11279,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38">
         <v>40878</v>
       </c>
@@ -11296,7 +11303,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="50" t="s">
         <v>62</v>
       </c>
@@ -11318,7 +11325,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38">
         <v>40909</v>
       </c>
@@ -11342,7 +11349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>276</v>
@@ -11359,7 +11366,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="38">
         <v>40940</v>
       </c>
@@ -11383,7 +11390,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38">
         <v>40969</v>
       </c>
@@ -11407,7 +11414,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="38"/>
       <c r="B340" s="20" t="s">
         <v>96</v>
@@ -11427,7 +11434,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <v>41000</v>
       </c>
@@ -11451,7 +11458,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38">
         <v>41030</v>
       </c>
@@ -11475,7 +11482,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38"/>
       <c r="B343" s="20" t="s">
         <v>73</v>
@@ -11497,7 +11504,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>128</v>
@@ -11517,7 +11524,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38">
         <v>41061</v>
       </c>
@@ -11543,7 +11550,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38"/>
       <c r="B346" s="20" t="s">
         <v>120</v>
@@ -11563,7 +11570,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38">
         <v>41091</v>
       </c>
@@ -11589,7 +11596,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38"/>
       <c r="B348" s="20" t="s">
         <v>73</v>
@@ -11611,7 +11618,7 @@
         <v>41094</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="38"/>
       <c r="B349" s="20" t="s">
         <v>279</v>
@@ -11631,7 +11638,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38">
         <v>41122</v>
       </c>
@@ -11657,7 +11664,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38"/>
       <c r="B351" s="20" t="s">
         <v>73</v>
@@ -11679,7 +11686,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
       <c r="B352" s="20" t="s">
         <v>280</v>
@@ -11699,7 +11706,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38">
         <v>41153</v>
       </c>
@@ -11723,7 +11730,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38">
         <v>41183</v>
       </c>
@@ -11747,7 +11754,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38">
         <v>41214</v>
       </c>
@@ -11771,7 +11778,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="38">
         <v>41244</v>
       </c>
@@ -11795,7 +11802,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="50" t="s">
         <v>63</v>
       </c>
@@ -11817,7 +11824,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="38">
         <v>41275</v>
       </c>
@@ -11841,7 +11848,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38">
         <v>41306</v>
       </c>
@@ -11865,7 +11872,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38">
         <v>41334</v>
       </c>
@@ -11889,7 +11896,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="38">
         <v>41365</v>
       </c>
@@ -11913,7 +11920,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="38">
         <v>41395</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="38"/>
       <c r="B363" s="20" t="s">
         <v>290</v>
@@ -11957,7 +11964,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="38">
         <v>41426</v>
       </c>
@@ -11981,7 +11988,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="38">
         <v>41456</v>
       </c>
@@ -12005,7 +12012,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="38"/>
       <c r="B366" s="20" t="s">
         <v>292</v>
@@ -12025,7 +12032,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38">
         <v>41487</v>
       </c>
@@ -12049,7 +12056,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38">
         <v>41518</v>
       </c>
@@ -12073,7 +12080,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38">
         <v>41548</v>
       </c>
@@ -12097,7 +12104,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38">
         <v>41579</v>
       </c>
@@ -12121,7 +12128,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="38">
         <v>41609</v>
       </c>
@@ -12147,7 +12154,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="38"/>
       <c r="B372" s="20" t="s">
         <v>85</v>
@@ -12164,7 +12171,7 @@
         <v>41634</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>297</v>
@@ -12181,7 +12188,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="50" t="s">
         <v>64</v>
       </c>
@@ -12203,7 +12210,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="38">
         <v>41640</v>
       </c>
@@ -12227,7 +12234,7 @@
         <v>41656</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="B376" s="20" t="s">
         <v>301</v>
@@ -12247,7 +12254,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="38">
         <v>41671</v>
       </c>
@@ -12271,7 +12278,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38">
         <v>41699</v>
       </c>
@@ -12295,7 +12302,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>253</v>
@@ -12317,7 +12324,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="38"/>
       <c r="B380" s="20" t="s">
         <v>303</v>
@@ -12337,7 +12344,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="38">
         <v>41730</v>
       </c>
@@ -12361,7 +12368,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="38">
         <v>41760</v>
       </c>
@@ -12385,7 +12392,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="38">
         <v>41791</v>
       </c>
@@ -12409,7 +12416,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="38">
         <v>41821</v>
       </c>
@@ -12433,7 +12440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>86</v>
@@ -12453,7 +12460,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="38">
         <v>41852</v>
       </c>
@@ -12477,7 +12484,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="38">
         <v>41883</v>
       </c>
@@ -12501,7 +12508,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="38">
         <v>41913</v>
       </c>
@@ -12527,7 +12534,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>253</v>
@@ -12549,7 +12556,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="38"/>
       <c r="B390" s="20" t="s">
         <v>305</v>
@@ -12569,7 +12576,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="38">
         <v>41944</v>
       </c>
@@ -12595,7 +12602,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="38"/>
       <c r="B392" s="20" t="s">
         <v>306</v>
@@ -12615,7 +12622,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="38">
         <v>41974</v>
       </c>
@@ -12639,7 +12646,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="50" t="s">
         <v>65</v>
       </c>
@@ -12661,7 +12668,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="38">
         <v>42005</v>
       </c>
@@ -12685,7 +12692,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="38"/>
       <c r="B396" s="20" t="s">
         <v>168</v>
@@ -12702,7 +12709,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="38">
         <v>42036</v>
       </c>
@@ -12723,7 +12730,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="38">
         <v>42064</v>
       </c>
@@ -12747,7 +12754,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="38"/>
       <c r="B399" s="20" t="s">
         <v>85</v>
@@ -12767,7 +12774,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="38"/>
       <c r="B400" s="20" t="s">
         <v>96</v>
@@ -12787,7 +12794,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="38">
         <v>42095</v>
       </c>
@@ -12811,7 +12818,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="38">
         <v>42125</v>
       </c>
@@ -12835,7 +12842,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="38">
         <v>42156</v>
       </c>
@@ -12859,7 +12866,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="38">
         <v>42186</v>
       </c>
@@ -12883,7 +12890,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="38">
         <v>42217</v>
       </c>
@@ -12907,7 +12914,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="38">
         <v>42248</v>
       </c>
@@ -12931,7 +12938,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="38">
         <v>42278</v>
       </c>
@@ -12957,7 +12964,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="38"/>
       <c r="B408" s="20" t="s">
         <v>253</v>
@@ -12979,7 +12986,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="38"/>
       <c r="B409" s="20" t="s">
         <v>81</v>
@@ -13001,7 +13008,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
       <c r="B410" s="20" t="s">
         <v>314</v>
@@ -13021,7 +13028,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="38">
         <v>42309</v>
       </c>
@@ -13045,7 +13052,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="38">
         <v>42339</v>
       </c>
@@ -13069,7 +13076,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="50" t="s">
         <v>66</v>
       </c>
@@ -13091,7 +13098,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="38">
         <v>42370</v>
       </c>
@@ -13115,7 +13122,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="38">
         <v>42401</v>
       </c>
@@ -13139,7 +13146,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="38">
         <v>42430</v>
       </c>
@@ -13163,7 +13170,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="38">
         <v>42461</v>
       </c>
@@ -13187,7 +13194,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="38"/>
       <c r="B418" s="20" t="s">
         <v>85</v>
@@ -13207,7 +13214,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
       <c r="B419" s="20" t="s">
         <v>148</v>
@@ -13227,7 +13234,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="38"/>
       <c r="B420" s="20" t="s">
         <v>85</v>
@@ -13245,7 +13252,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="38">
         <v>42491</v>
       </c>
@@ -13269,7 +13276,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>258</v>
@@ -13291,7 +13298,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="38">
         <v>42522</v>
       </c>
@@ -13315,7 +13322,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="38"/>
       <c r="B424" s="20" t="s">
         <v>73</v>
@@ -13337,7 +13344,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="38">
         <v>42552</v>
       </c>
@@ -13357,7 +13364,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="38">
         <v>42583</v>
       </c>
@@ -13377,7 +13384,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="38">
         <v>42614</v>
       </c>
@@ -13397,7 +13404,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="38">
         <v>42644</v>
       </c>
@@ -13417,7 +13424,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="38">
         <v>42675</v>
       </c>
@@ -13437,7 +13444,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="38">
         <v>42705</v>
       </c>
@@ -13461,7 +13468,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="50" t="s">
         <v>67</v>
       </c>
@@ -13483,7 +13490,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="38">
         <v>42736</v>
       </c>
@@ -13503,7 +13510,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="38">
         <v>42767</v>
       </c>
@@ -13523,7 +13530,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="38">
         <v>42795</v>
       </c>
@@ -13543,7 +13550,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="38">
         <v>42826</v>
       </c>
@@ -13563,7 +13570,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="38">
         <v>42856</v>
       </c>
@@ -13583,7 +13590,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="38">
         <v>42887</v>
       </c>
@@ -13607,7 +13614,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>85</v>
@@ -13624,7 +13631,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="38"/>
       <c r="B439" s="20" t="s">
         <v>85</v>
@@ -13641,7 +13648,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="38">
         <v>42917</v>
       </c>
@@ -13661,7 +13668,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="38">
         <v>42948</v>
       </c>
@@ -13681,7 +13688,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="38">
         <v>42979</v>
       </c>
@@ -13707,7 +13714,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="38"/>
       <c r="B443" s="20" t="s">
         <v>73</v>
@@ -13726,7 +13733,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="38">
         <v>43009</v>
       </c>
@@ -13752,7 +13759,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="38">
         <v>43040</v>
       </c>
@@ -13772,7 +13779,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="38">
         <v>43070</v>
       </c>
@@ -13798,7 +13805,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="50" t="s">
         <v>68</v>
       </c>
@@ -13820,7 +13827,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="38">
         <v>43101</v>
       </c>
@@ -13844,7 +13851,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="38">
         <v>43132</v>
       </c>
@@ -13864,7 +13871,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="38">
         <v>43160</v>
       </c>
@@ -13884,7 +13891,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="38">
         <v>43191</v>
       </c>
@@ -13904,7 +13911,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="38">
         <v>43221</v>
       </c>
@@ -13930,7 +13937,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="38"/>
       <c r="B453" s="20" t="s">
         <v>85</v>
@@ -13947,7 +13954,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="38">
         <v>43252</v>
       </c>
@@ -13967,7 +13974,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="38">
         <v>43282</v>
       </c>
@@ -13987,7 +13994,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="38">
         <v>43313</v>
       </c>
@@ -14007,7 +14014,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="38">
         <v>43344</v>
       </c>
@@ -14027,7 +14034,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="38">
         <v>43374</v>
       </c>
@@ -14053,7 +14060,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="38">
         <v>43405</v>
       </c>
@@ -14079,7 +14086,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="38">
         <v>43435</v>
       </c>
@@ -14105,7 +14112,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="50" t="s">
         <v>69</v>
       </c>
@@ -14127,7 +14134,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="38">
         <v>43466</v>
       </c>
@@ -14151,7 +14158,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="38"/>
       <c r="B463" s="20" t="s">
         <v>76</v>
@@ -14170,7 +14177,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="38"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -14187,7 +14194,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <v>43497</v>
       </c>
@@ -14207,7 +14214,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="38">
         <v>43525</v>
       </c>
@@ -14227,7 +14234,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="38">
         <v>43556</v>
       </c>
@@ -14253,7 +14260,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="38">
         <v>43586</v>
       </c>
@@ -14273,7 +14280,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="38">
         <v>43617</v>
       </c>
@@ -14293,7 +14300,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="38">
         <v>43647</v>
       </c>
@@ -14319,7 +14326,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="38"/>
       <c r="B471" s="20" t="s">
         <v>78</v>
@@ -14341,7 +14348,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="38">
         <v>43678</v>
       </c>
@@ -14361,7 +14368,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="38">
         <v>43709</v>
       </c>
@@ -14381,7 +14388,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="38">
         <v>43739</v>
       </c>
@@ -14401,7 +14408,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="38">
         <v>43770</v>
       </c>
@@ -14421,7 +14428,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="38">
         <v>43800</v>
       </c>
@@ -14447,7 +14454,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="38"/>
       <c r="B477" s="20" t="s">
         <v>85</v>
@@ -14467,7 +14474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="50" t="s">
         <v>70</v>
       </c>
@@ -14489,7 +14496,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="38">
         <v>43831</v>
       </c>
@@ -14509,7 +14516,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="38">
         <v>43862</v>
       </c>
@@ -14531,7 +14538,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="38">
         <v>43891</v>
       </c>
@@ -14551,7 +14558,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="38">
         <v>43922</v>
       </c>
@@ -14571,7 +14578,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="38">
         <v>43952</v>
       </c>
@@ -14591,7 +14598,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="38">
         <v>43983</v>
       </c>
@@ -14611,7 +14618,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="38">
         <v>44013</v>
       </c>
@@ -14637,7 +14644,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="38"/>
       <c r="B486" s="20" t="s">
         <v>85</v>
@@ -14657,7 +14664,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="38">
         <v>44044</v>
       </c>
@@ -14677,7 +14684,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="38">
         <v>44075</v>
       </c>
@@ -14697,7 +14704,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="38">
         <v>44105</v>
       </c>
@@ -14717,7 +14724,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="38">
         <v>44136</v>
       </c>
@@ -14737,7 +14744,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="38">
         <v>44166</v>
       </c>
@@ -14761,7 +14768,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="50" t="s">
         <v>342</v>
       </c>
@@ -14779,7 +14786,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="38">
         <v>44197</v>
       </c>
@@ -14799,7 +14806,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="38">
         <v>44228</v>
       </c>
@@ -14819,7 +14826,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="38">
         <v>44256</v>
       </c>
@@ -14839,7 +14846,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="38">
         <v>44287</v>
       </c>
@@ -14859,7 +14866,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="38">
         <v>44317</v>
       </c>
@@ -14879,7 +14886,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="38">
         <v>44348</v>
       </c>
@@ -14899,7 +14906,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="38">
         <v>44378</v>
       </c>
@@ -14919,7 +14926,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="38">
         <v>44409</v>
       </c>
@@ -14939,7 +14946,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="38">
         <v>44440</v>
       </c>
@@ -14959,7 +14966,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="38">
         <v>44470</v>
       </c>
@@ -14979,7 +14986,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="38">
         <v>44501</v>
       </c>
@@ -14999,7 +15006,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <v>44531</v>
       </c>
@@ -15023,7 +15030,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="50" t="s">
         <v>343</v>
       </c>
@@ -15041,7 +15048,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="38">
         <v>44562</v>
       </c>
@@ -15061,7 +15068,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="38">
         <v>44593</v>
       </c>
@@ -15081,7 +15088,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="38">
         <v>44621</v>
       </c>
@@ -15101,7 +15108,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="38">
         <v>44652</v>
       </c>
@@ -15121,7 +15128,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="38">
         <v>44682</v>
       </c>
@@ -15141,7 +15148,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="38">
         <v>44713</v>
       </c>
@@ -15161,7 +15168,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="38">
         <v>44743</v>
       </c>
@@ -15181,7 +15188,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="38">
         <v>44774</v>
       </c>
@@ -15201,7 +15208,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="38">
         <v>44805</v>
       </c>
@@ -15221,7 +15228,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="38">
         <v>44835</v>
       </c>
@@ -15241,7 +15248,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="38">
         <v>44866</v>
       </c>
@@ -15261,7 +15268,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="38">
         <v>44896</v>
       </c>
@@ -15287,7 +15294,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="38"/>
       <c r="B518" s="20" t="s">
         <v>112</v>
@@ -15307,7 +15314,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="50" t="s">
         <v>344</v>
       </c>
@@ -15325,7 +15332,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="38">
         <v>44927</v>
       </c>
@@ -15345,7 +15352,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="38">
         <v>44958</v>
       </c>
@@ -15365,7 +15372,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="38">
         <v>44986</v>
       </c>
@@ -15385,7 +15392,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="38">
         <v>45017</v>
       </c>
@@ -15403,7 +15410,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="38">
         <v>45047</v>
       </c>
@@ -15421,7 +15428,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="38"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15437,7 +15444,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="38"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15453,7 +15460,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="38"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15469,7 +15476,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="38"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15485,7 +15492,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="38"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15501,7 +15508,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="38"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15517,19 +15524,19 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="67"/>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531" s="55"/>
       <c r="B531" s="15"/>
       <c r="C531" s="39"/>
       <c r="D531" s="40"/>
-      <c r="E531" s="68"/>
+      <c r="E531" s="56"/>
       <c r="F531" s="15"/>
       <c r="G531" s="39" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H531" s="40"/>
-      <c r="I531" s="68"/>
+      <c r="I531" s="56"/>
       <c r="J531" s="12"/>
       <c r="K531" s="15"/>
     </row>
@@ -15548,10 +15555,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15574,42 +15581,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -15638,7 +15645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -15664,17 +15671,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>346</v>
+      </c>
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -15688,14 +15698,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>344.70300000000009</v>
+      </c>
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -15722,7 +15736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -15748,7 +15762,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -15774,7 +15788,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -15800,7 +15814,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -15826,7 +15840,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -15852,7 +15866,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -15878,7 +15892,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -15904,7 +15918,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -15924,7 +15938,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -15944,7 +15958,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -15964,7 +15978,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -15985,7 +15999,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -16006,7 +16020,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -16027,7 +16041,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -16048,7 +16062,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -16069,7 +16083,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -16090,7 +16104,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -16111,7 +16125,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -16132,7 +16146,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -16153,7 +16167,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -16174,7 +16188,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -16195,7 +16209,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -16216,7 +16230,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -16237,7 +16251,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -16258,7 +16272,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -16279,7 +16293,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -16300,7 +16314,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -16321,7 +16335,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -16342,7 +16356,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -16363,7 +16377,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -16384,7 +16398,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -16393,7 +16407,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -16402,7 +16416,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -16411,7 +16425,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -16420,7 +16434,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -16429,7 +16443,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -16438,7 +16452,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -16447,7 +16461,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -16456,7 +16470,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -16465,7 +16479,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -16474,7 +16488,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -16483,7 +16497,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -16492,7 +16506,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -16501,7 +16515,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -16510,7 +16524,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -16519,7 +16533,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -16528,7 +16542,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -16537,7 +16551,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -16546,7 +16560,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -16555,7 +16569,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -16564,7 +16578,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -16573,7 +16587,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -16582,7 +16596,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -16591,7 +16605,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -16600,7 +16614,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -16609,7 +16623,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -16618,7 +16632,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -16627,7 +16641,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -16636,7 +16650,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -16645,7 +16659,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/ALEGRE, VIVENCIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALEGRE, VIVENCIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057ADCD6-0078-4F70-A321-43909AC16A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696619E2-3E22-4F8B-96D2-6237B961D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,17 +29,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3491,7 +3480,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3888,10 +3877,10 @@
   </sheetPr>
   <dimension ref="A2:K531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A3" activePane="bottomLeft"/>
-      <selection activeCell="D247" sqref="D247"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3984" topLeftCell="A441" activePane="bottomLeft"/>
+      <selection activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4048,7 +4037,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.203000000000088</v>
+        <v>84.703000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4058,7 +4047,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>262.5</v>
+        <v>265</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4108,13 +4097,15 @@
         <v>34060</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="48">
+        <v>1.25</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="9"/>
@@ -15397,13 +15388,15 @@
         <v>45017</v>
       </c>
       <c r="B523" s="20"/>
-      <c r="C523" s="13"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D523" s="37"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H523" s="37"/>
       <c r="I523" s="9"/>
@@ -15586,7 +15579,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15708,7 +15701,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>344.70300000000009</v>
+        <v>349.70300000000009</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/ALEGRE, VIVENCIO.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALEGRE, VIVENCIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696619E2-3E22-4F8B-96D2-6237B961D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9BFEC-87D2-4F50-A319-C062DF86EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3878,9 +3878,9 @@
   <dimension ref="A2:K531"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A441" activePane="bottomLeft"/>
-      <selection activeCell="J14" sqref="J14"/>
-      <selection pane="bottomLeft" activeCell="B495" sqref="B495"/>
+      <pane ySplit="2424" topLeftCell="A436"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D492" sqref="D492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4037,7 +4037,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>84.703000000000088</v>
+        <v>190.45300000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4047,7 +4047,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>265</v>
+        <v>407.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15408,13 +15408,15 @@
         <v>45047</v>
       </c>
       <c r="B524" s="20"/>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="37"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="37"/>
       <c r="I524" s="9"/>
@@ -15579,7 +15581,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15639,8 +15641,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11">
+        <v>104.5</v>
+      </c>
+      <c r="B3" s="11">
+        <v>141.5</v>
+      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -15701,7 +15707,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>349.70300000000009</v>
+        <v>598.20300000000009</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
